--- a/thresholds/IGCSE/italian-foreign-language/italian-foreign-language-thresholds.xlsx
+++ b/thresholds/IGCSE/italian-foreign-language/italian-foreign-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,7 +575,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -616,77 +616,77 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F5" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -739,26 +739,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E8" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="n">
         <v>69</v>
@@ -773,33 +773,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
         <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
         <v>69</v>
@@ -814,14 +814,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,32 +862,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" t="n">
         <v>139</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -896,33 +896,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D12" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E12" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="n">
         <v>69</v>
@@ -936,6 +936,88 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>X 03,11,21,41</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>158</v>
+      </c>
+      <c r="D13" t="n">
+        <v>139</v>
+      </c>
+      <c r="E13" t="n">
+        <v>120</v>
+      </c>
+      <c r="F13" t="n">
+        <v>101</v>
+      </c>
+      <c r="G13" t="n">
+        <v>86</v>
+      </c>
+      <c r="H13" t="n">
+        <v>71</v>
+      </c>
+      <c r="I13" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>161</v>
+      </c>
+      <c r="D14" t="n">
+        <v>141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>121</v>
+      </c>
+      <c r="F14" t="n">
+        <v>101</v>
+      </c>
+      <c r="G14" t="n">
+        <v>85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>55</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
